--- a/support/most_affordable_tj.xlsx
+++ b/support/most_affordable_tj.xlsx
@@ -18,54 +18,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="101">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Abbreviation</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Zip</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Adult Cleaning</t>
-  </si>
-  <si>
-    <t>Composite Filling - 1 surface</t>
-  </si>
-  <si>
-    <t>Extraction</t>
-  </si>
-  <si>
-    <t>Root Canal</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
     <t>Smile Builders</t>
   </si>
   <si>
-    <t>Street Address</t>
-  </si>
-  <si>
     <t>Av Revolucion 993</t>
   </si>
   <si>
@@ -132,9 +87,6 @@
     <t>Prices on website</t>
   </si>
   <si>
-    <t>Other Info</t>
-  </si>
-  <si>
     <t>Not in Tijuana</t>
   </si>
   <si>
@@ -210,9 +162,6 @@
     <t>39-50</t>
   </si>
   <si>
-    <t>Porcelain Crown on Metal</t>
-  </si>
-  <si>
     <t>Dental Alvarez</t>
   </si>
   <si>
@@ -319,6 +268,57 @@
   </si>
   <si>
     <t>294-315</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>abbreviation</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>adult_cleaning</t>
+  </si>
+  <si>
+    <t>composite_filling</t>
+  </si>
+  <si>
+    <t>extraction</t>
+  </si>
+  <si>
+    <t>root_canal</t>
+  </si>
+  <si>
+    <t>porcelain_crown</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>other_info</t>
   </si>
 </sst>
 </file>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,75 +793,75 @@
   <sheetData>
     <row r="1" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>22000</v>
@@ -885,36 +885,36 @@
         <v>80</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="O2">
         <v>550</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>22000</v>
@@ -934,30 +934,30 @@
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="Q3" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G4" s="11">
         <v>91910</v>
@@ -966,30 +966,30 @@
         <v>6194223368</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>22010</v>
@@ -1010,7 +1010,7 @@
         <v>40</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>250</v>
@@ -1019,30 +1019,30 @@
         <v>450</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Q5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>22000</v>
@@ -1066,36 +1066,36 @@
         <v>80</v>
       </c>
       <c r="N6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="O6">
         <v>395</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="Q6" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G7" s="11">
         <v>91910</v>
@@ -1104,30 +1104,30 @@
         <v>6194821210</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>22000</v>
@@ -1142,7 +1142,7 @@
         <v>-117.03604900000001</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L8">
         <v>40</v>
@@ -1151,51 +1151,51 @@
         <v>40</v>
       </c>
       <c r="N8" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="O8" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H9" s="12"/>
       <c r="Q9" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H10" s="12"/>
       <c r="Q10" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <v>22000</v>
@@ -1216,39 +1216,39 @@
         <v>39</v>
       </c>
       <c r="M11" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="N11" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="O11">
         <v>225</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="Q11" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G12">
         <v>22320</v>
@@ -1269,44 +1269,44 @@
         <v>60</v>
       </c>
       <c r="N12" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="O12">
         <v>300</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="Q12" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <v>22010</v>
@@ -1326,46 +1326,46 @@
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="Q14" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G17">
         <v>22010</v>
@@ -1385,48 +1385,48 @@
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="8" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="H18" s="12"/>
       <c r="Q18" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="H19" s="12"/>
       <c r="Q19" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G20">
         <v>22420</v>
@@ -1450,81 +1450,81 @@
         <v>200</v>
       </c>
       <c r="N20" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="O20">
         <v>550</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="Q20" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="H21" s="12"/>
       <c r="Q21" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="H22" s="12"/>
       <c r="Q22" s="11" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="H23" s="12"/>
       <c r="Q23" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H24" s="12"/>
       <c r="Q24" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H25" s="12"/>
       <c r="Q25" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G26">
         <v>22010</v>
@@ -1542,22 +1542,22 @@
         <v>45</v>
       </c>
       <c r="L26" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="M26" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="N26" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="O26">
         <v>285</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="Q26" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/support/most_affordable_tj.xlsx
+++ b/support/most_affordable_tj.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="103">
   <si>
     <t>Smile Builders</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>other_info</t>
+  </si>
+  <si>
+    <t>fake_data</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -331,7 +337,7 @@
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +379,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -433,7 +445,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -461,6 +473,8 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - Accent6" xfId="3" builtinId="51"/>
@@ -766,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,10 +802,11 @@
     <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.28515625" customWidth="1"/>
     <col min="16" max="16" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" customWidth="1"/>
+    <col min="18" max="18" width="41.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -840,11 +855,14 @@
       <c r="P1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -893,11 +911,12 @@
       <c r="P2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="15"/>
+      <c r="R2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -928,19 +947,32 @@
       <c r="J3">
         <v>-117.015894</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="K3" s="10">
+        <v>40</v>
+      </c>
+      <c r="L3" s="10">
+        <v>65</v>
+      </c>
+      <c r="M3" s="10">
+        <v>85</v>
+      </c>
+      <c r="N3" s="10">
+        <v>260</v>
+      </c>
+      <c r="O3" s="10">
+        <v>475</v>
+      </c>
       <c r="P3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="R3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
@@ -968,11 +1000,12 @@
       <c r="P4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="16"/>
+      <c r="R4" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1021,11 +1054,12 @@
       <c r="P5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="15"/>
+      <c r="R5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
@@ -1074,11 +1108,12 @@
       <c r="P6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="15"/>
+      <c r="R6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
@@ -1106,11 +1141,12 @@
       <c r="P7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="16"/>
+      <c r="R7" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>34</v>
       </c>
@@ -1159,26 +1195,29 @@
       <c r="P8" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q8" s="15"/>
+    </row>
+    <row r="9" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H9" s="12"/>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="16"/>
+      <c r="R9" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="12"/>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="16"/>
+      <c r="R10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1227,11 +1266,12 @@
       <c r="P11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="15"/>
+      <c r="R11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1277,19 +1317,21 @@
       <c r="P12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="15"/>
+      <c r="R12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="16"/>
+      <c r="R13" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1320,35 +1362,50 @@
       <c r="J14">
         <v>-117.014099</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
+      <c r="K14" s="10">
+        <v>40</v>
+      </c>
+      <c r="L14" s="10">
+        <v>50</v>
+      </c>
+      <c r="M14" s="10">
+        <v>80</v>
+      </c>
+      <c r="N14" s="10">
+        <v>300</v>
+      </c>
+      <c r="O14" s="10">
+        <v>350</v>
+      </c>
       <c r="P14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="R14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="Q15" s="16"/>
+      <c r="R15" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="Q16" s="16"/>
+      <c r="R16" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -1379,37 +1436,52 @@
       <c r="J17">
         <v>-117.045351</v>
       </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
+      <c r="K17" s="10">
+        <v>45</v>
+      </c>
+      <c r="L17" s="10">
+        <v>45</v>
+      </c>
+      <c r="M17" s="10">
+        <v>75</v>
+      </c>
+      <c r="N17" s="10">
+        <v>275</v>
+      </c>
+      <c r="O17" s="10">
+        <v>400</v>
+      </c>
       <c r="P17" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="Q17" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="R17" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>64</v>
       </c>
       <c r="H18" s="12"/>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="16"/>
+      <c r="R18" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H19" s="12"/>
-      <c r="Q19" s="11" t="s">
+      <c r="Q19" s="16"/>
+      <c r="R19" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -1458,56 +1530,62 @@
       <c r="P20" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="15"/>
+      <c r="R20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>72</v>
       </c>
       <c r="H21" s="12"/>
-      <c r="Q21" s="11" t="s">
+      <c r="Q21" s="16"/>
+      <c r="R21" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>73</v>
       </c>
       <c r="H22" s="12"/>
-      <c r="Q22" s="11" t="s">
+      <c r="Q22" s="16"/>
+      <c r="R22" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H23" s="12"/>
-      <c r="Q23" s="11" t="s">
+      <c r="Q23" s="16"/>
+      <c r="R23" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H24" s="12"/>
-      <c r="Q24" s="11" t="s">
+      <c r="Q24" s="16"/>
+      <c r="R24" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>77</v>
       </c>
       <c r="H25" s="12"/>
-      <c r="Q25" s="11" t="s">
+      <c r="Q25" s="16"/>
+      <c r="R25" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -1556,7 +1634,8 @@
       <c r="P26" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="Q26" s="15"/>
+      <c r="R26" t="s">
         <v>22</v>
       </c>
     </row>
